--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="ClassTable" sheetId="1" r:id="rId1"/>
+    <sheet name="EnvironmentProperties" sheetId="2" r:id="rId2"/>
+    <sheet name="ItemsProperties" sheetId="3" r:id="rId3"/>
+    <sheet name="LiveProperties" sheetId="4" r:id="rId4"/>
+    <sheet name="NonLiveProperties" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Items</t>
   </si>
@@ -70,12 +74,78 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>NonLive</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Mobs</t>
+  </si>
+  <si>
+    <t>Aggro</t>
+  </si>
+  <si>
+    <t>Peace</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Wtrig</t>
+  </si>
+  <si>
+    <t>HitboxW(int)</t>
+  </si>
+  <si>
+    <t>HitboxH(int)</t>
+  </si>
+  <si>
+    <t>HitboxX(int)</t>
+  </si>
+  <si>
+    <t>HitboxY(int)</t>
+  </si>
+  <si>
+    <t>PosX(int)</t>
+  </si>
+  <si>
+    <t>PosY(int)</t>
+  </si>
+  <si>
+    <t>Sprite(Sprite)</t>
+  </si>
+  <si>
+    <t>Collision(bool)</t>
+  </si>
+  <si>
+    <t>Pickup(bool)</t>
+  </si>
+  <si>
+    <t>ExistOnMap(bool)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,20 +158,41 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <name val="Arial Black"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <name val="Orbitron"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +223,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -183,55 +322,189 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="medium">
         <color indexed="64"/>
-      </top>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,88 +798,2843 @@
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+    </row>
+    <row r="2" spans="1:32" ht="32.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+    </row>
+    <row r="3" spans="1:32" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+    </row>
+    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="8" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+    </row>
+    <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="10" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="H5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+    </row>
+    <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+    </row>
+    <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+    </row>
+    <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+    </row>
+    <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
+      <c r="AF38" s="27"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="27"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+      <c r="AF42" s="27"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+      <c r="AF44" s="27"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="27"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="27"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="27"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="27"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="27"/>
+      <c r="AF50" s="27"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="27"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="27"/>
+      <c r="AD52" s="27"/>
+      <c r="AE52" s="27"/>
+      <c r="AF52" s="27"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="27"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="27"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="27"/>
+      <c r="AE55" s="27"/>
+      <c r="AF55" s="27"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="27"/>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="27"/>
+      <c r="AE56" s="27"/>
+      <c r="AF56" s="27"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="27"/>
+      <c r="AF57" s="27"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="27"/>
+      <c r="AF58" s="27"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="27"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27"/>
+      <c r="AE60" s="27"/>
+      <c r="AF60" s="27"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="27"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="27"/>
+      <c r="AD61" s="27"/>
+      <c r="AE61" s="27"/>
+      <c r="AF61" s="27"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="27"/>
+      <c r="AF62" s="27"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="27"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="27"/>
+      <c r="AE63" s="27"/>
+      <c r="AF63" s="27"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="27"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="27"/>
+      <c r="AA64" s="27"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="27"/>
+      <c r="AD64" s="27"/>
+      <c r="AE64" s="27"/>
+      <c r="AF64" s="27"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="27"/>
+      <c r="AD65" s="27"/>
+      <c r="AE65" s="27"/>
+      <c r="AF65" s="27"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="27"/>
+      <c r="AE66" s="27"/>
+      <c r="AF66" s="27"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="27"/>
+      <c r="AE67" s="27"/>
+      <c r="AF67" s="27"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="27"/>
+      <c r="AD68" s="27"/>
+      <c r="AE68" s="27"/>
+      <c r="AF68" s="27"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="27"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="27"/>
+      <c r="AD69" s="27"/>
+      <c r="AE69" s="27"/>
+      <c r="AF69" s="27"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="27"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27"/>
+      <c r="AC70" s="27"/>
+      <c r="AD70" s="27"/>
+      <c r="AE70" s="27"/>
+      <c r="AF70" s="27"/>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="27"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="27"/>
+      <c r="AE71" s="27"/>
+      <c r="AF71" s="27"/>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="27"/>
+      <c r="V72" s="27"/>
+      <c r="W72" s="27"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="27"/>
+      <c r="AA72" s="27"/>
+      <c r="AB72" s="27"/>
+      <c r="AC72" s="27"/>
+      <c r="AD72" s="27"/>
+      <c r="AE72" s="27"/>
+      <c r="AF72" s="27"/>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
+      <c r="U73" s="27"/>
+      <c r="V73" s="27"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="27"/>
+      <c r="AC73" s="27"/>
+      <c r="AD73" s="27"/>
+      <c r="AE73" s="27"/>
+      <c r="AF73" s="27"/>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="27"/>
+      <c r="AF74" s="27"/>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="27"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="27"/>
+      <c r="AF75" s="27"/>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="27"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="27"/>
+      <c r="AE76" s="27"/>
+      <c r="AF76" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A2:G2"/>
+  <mergeCells count="18">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2:N2" location="EnvironmentProperties!A1" display="Environment"/>
+    <hyperlink ref="A3:G3" location="ItemsProperties!A1" display="Items"/>
+    <hyperlink ref="H3:J3" location="LiveProperties!A1" display="Live"/>
+    <hyperlink ref="K3:N3" location="NonLiveProperties!A1" display="NonLive"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0.28515625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Items</t>
   </si>
@@ -262,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -312,52 +312,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -373,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -383,46 +337,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,34 +364,40 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,7 +684,7 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,24 +741,24 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -855,28 +779,28 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -909,22 +833,22 @@
         <v>10</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="2"/>
@@ -947,46 +871,46 @@
       <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="22"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1007,20 +931,20 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1041,20 +965,20 @@
       <c r="AF6" s="2"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1075,20 +999,20 @@
       <c r="AF7" s="2"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1109,20 +1033,20 @@
       <c r="AF8" s="2"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1143,20 +1067,20 @@
       <c r="AF9" s="2"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1177,20 +1101,20 @@
       <c r="AF10" s="2"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1211,20 +1135,20 @@
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1245,20 +1169,20 @@
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1279,20 +1203,20 @@
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1313,20 +1237,20 @@
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1347,20 +1271,20 @@
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1381,22 +1305,22 @@
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1414,23 +1338,23 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1448,35 +1372,23 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1494,43 +1406,23 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1548,37 +1440,23 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1597,22 +1475,22 @@
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1631,22 +1509,22 @@
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1665,22 +1543,22 @@
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1699,22 +1577,22 @@
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1733,22 +1611,22 @@
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1767,22 +1645,22 @@
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -3467,25 +3345,18 @@
       <c r="AF76" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="11">
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3:J3" location="LiveProperties!A1" display="Live"/>
@@ -3522,26 +3393,26 @@
   <sheetData>
     <row r="1" spans="2:11" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="4" t="s">
         <v>27</v>
       </c>

--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -262,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -322,6 +322,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -338,12 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -376,15 +383,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,6 +396,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,7 +697,7 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,24 +754,24 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -779,28 +792,28 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="21" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="19" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -821,34 +834,34 @@
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="20" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="7" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="2"/>
@@ -871,46 +884,46 @@
       <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -931,20 +944,20 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -965,20 +978,20 @@
       <c r="AF6" s="2"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -999,20 +1012,20 @@
       <c r="AF7" s="2"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1033,20 +1046,20 @@
       <c r="AF8" s="2"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1067,20 +1080,20 @@
       <c r="AF9" s="2"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1101,20 +1114,20 @@
       <c r="AF10" s="2"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1135,20 +1148,20 @@
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1169,20 +1182,20 @@
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1203,20 +1216,20 @@
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1237,20 +1250,20 @@
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1271,20 +1284,20 @@
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1305,22 +1318,22 @@
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1339,22 +1352,22 @@
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1373,22 +1386,22 @@
       <c r="AF18" s="2"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1407,22 +1420,22 @@
       <c r="AF19" s="2"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1441,22 +1454,22 @@
       <c r="AF20" s="2"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1475,22 +1488,22 @@
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1509,22 +1522,22 @@
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1543,22 +1556,22 @@
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1577,22 +1590,22 @@
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1611,22 +1624,22 @@
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1645,22 +1658,22 @@
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -3359,8 +3372,6 @@
     <mergeCell ref="H3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H3:J3" location="LiveProperties!A1" display="Live"/>
-    <hyperlink ref="K3:N3" location="NonLiveProperties!A1" display="NonLive"/>
     <hyperlink ref="H2:N2" location="EnvironmentProperties!A1" display="Environment"/>
     <hyperlink ref="A2:G2" location="ItemsProperties!A1" display="Items"/>
   </hyperlinks>
@@ -3393,26 +3404,26 @@
   <sheetData>
     <row r="1" spans="2:11" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="4" t="s">
         <v>27</v>
       </c>

--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ClassTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Items</t>
   </si>
@@ -89,12 +89,6 @@
     <t>Mobs</t>
   </si>
   <si>
-    <t>Aggro</t>
-  </si>
-  <si>
-    <t>Peace</t>
-  </si>
-  <si>
     <t>Ground</t>
   </si>
   <si>
@@ -122,13 +116,73 @@
     <t>Collision(bool)</t>
   </si>
   <si>
-    <t>Pickup(bool)</t>
-  </si>
-  <si>
     <t>ExistOnMap(bool)</t>
   </si>
   <si>
     <t>Hitbox(SDL_Rect)</t>
+  </si>
+  <si>
+    <t>Animations(vector&lt;AnimationInfo&gt;)</t>
+  </si>
+  <si>
+    <t>ActiveAnimation(string)</t>
+  </si>
+  <si>
+    <t>fpX(int)</t>
+  </si>
+  <si>
+    <t>fpY(int)</t>
+  </si>
+  <si>
+    <t>HP(int)</t>
+  </si>
+  <si>
+    <t>MS(int)</t>
+  </si>
+  <si>
+    <t>Range(int)</t>
+  </si>
+  <si>
+    <t>AttackDmg(int)</t>
+  </si>
+  <si>
+    <t>Defense(int)</t>
+  </si>
+  <si>
+    <t>AttackCDTime(int)</t>
+  </si>
+  <si>
+    <t>AttackAnimationTime(int)</t>
+  </si>
+  <si>
+    <t>NickName(string)</t>
+  </si>
+  <si>
+    <t>Inventory(vector&lt;Items&gt;)</t>
+  </si>
+  <si>
+    <t>WSLOT(int)</t>
+  </si>
+  <si>
+    <t>ASLOT(int)</t>
+  </si>
+  <si>
+    <t>Hunger(int)</t>
+  </si>
+  <si>
+    <t>BulletCollision(bool)</t>
+  </si>
+  <si>
+    <t>PickUpAble(bool)</t>
+  </si>
+  <si>
+    <t>ID(int)</t>
+  </si>
+  <si>
+    <t>TriggerID(int)</t>
+  </si>
+  <si>
+    <t>Status(bool)</t>
   </si>
 </sst>
 </file>
@@ -182,7 +236,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,12 +281,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -286,34 +334,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -335,6 +359,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -343,7 +380,7 @@
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,20 +393,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,34 +426,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,24 +791,24 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -792,28 +829,28 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="16" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="25" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -834,35 +871,35 @@
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24" t="s">
-        <v>22</v>
+      <c r="J4" s="18"/>
+      <c r="K4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -908,20 +945,16 @@
       <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>25</v>
+      <c r="M5" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="2"/>
@@ -944,20 +977,20 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -978,20 +1011,20 @@
       <c r="AF6" s="2"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1012,20 +1045,20 @@
       <c r="AF7" s="2"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1046,20 +1079,20 @@
       <c r="AF8" s="2"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1080,20 +1113,20 @@
       <c r="AF9" s="2"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1114,20 +1147,20 @@
       <c r="AF10" s="2"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1148,20 +1181,20 @@
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1182,20 +1215,20 @@
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1216,20 +1249,20 @@
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1250,20 +1283,20 @@
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1284,20 +1317,20 @@
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1318,22 +1351,22 @@
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1352,22 +1385,22 @@
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1386,22 +1419,22 @@
       <c r="AF18" s="2"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1420,22 +1453,22 @@
       <c r="AF19" s="2"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1454,22 +1487,22 @@
       <c r="AF20" s="2"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1488,22 +1521,22 @@
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1522,22 +1555,22 @@
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1556,22 +1589,22 @@
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1590,22 +1623,22 @@
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1624,22 +1657,22 @@
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1658,22 +1691,22 @@
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -3382,71 +3415,197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K3"/>
+  <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="4" t="s">
+      <c r="B3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Items</t>
   </si>
@@ -110,9 +110,6 @@
     <t>PosY(int)</t>
   </si>
   <si>
-    <t>Sprite(Sprite)</t>
-  </si>
-  <si>
     <t>Collision(bool)</t>
   </si>
   <si>
@@ -179,10 +176,43 @@
     <t>ID(int)</t>
   </si>
   <si>
-    <t>TriggerID(int)</t>
-  </si>
-  <si>
     <t>Status(bool)</t>
+  </si>
+  <si>
+    <t>ConnectionID(int)</t>
+  </si>
+  <si>
+    <t>NonLive(logical)</t>
+  </si>
+  <si>
+    <t>Aggressive(bool)</t>
+  </si>
+  <si>
+    <t>AgroRange(SDL_Rect)</t>
+  </si>
+  <si>
+    <t>Sprite(SDL_Sprite)</t>
+  </si>
+  <si>
+    <t>Count(int)</t>
+  </si>
+  <si>
+    <t>Defence(int)</t>
+  </si>
+  <si>
+    <t>AD(int)</t>
+  </si>
+  <si>
+    <t>MaxCount(int)</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>EQ_Sprite(SDL_Sprite)</t>
+  </si>
+  <si>
+    <t>RequireItemID(int)</t>
   </si>
 </sst>
 </file>
@@ -310,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -334,19 +364,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -357,19 +374,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -405,13 +409,16 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,13 +433,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,14 +448,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,7 +738,7 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,24 +795,24 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -829,28 +833,28 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="21" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="19" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -871,34 +875,34 @@
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="20" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="13" t="s">
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="2"/>
@@ -3417,22 +3421,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -3445,167 +3449,207 @@
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24" t="s">
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+    </row>
+    <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="23"/>
+    </row>
+    <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:K2"/>
+  <mergeCells count="8">
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3613,12 +3657,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3627,7 +3786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ClassTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Items</t>
   </si>
@@ -41,21 +41,9 @@
     <t>Limited</t>
   </si>
   <si>
-    <t>Infinity</t>
-  </si>
-  <si>
-    <t>Restorable</t>
-  </si>
-  <si>
     <t>Unlimited</t>
   </si>
   <si>
-    <t>Stackable</t>
-  </si>
-  <si>
-    <t>NotStackable</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -194,18 +182,12 @@
     <t>Sprite(SDL_Sprite)</t>
   </si>
   <si>
-    <t>Count(int)</t>
-  </si>
-  <si>
     <t>Defence(int)</t>
   </si>
   <si>
     <t>AD(int)</t>
   </si>
   <si>
-    <t>MaxCount(int)</t>
-  </si>
-  <si>
     <t>Slot</t>
   </si>
   <si>
@@ -213,6 +195,9 @@
   </si>
   <si>
     <t>RequireItemID(int)</t>
+  </si>
+  <si>
+    <t>Stackable(bool)</t>
   </si>
 </sst>
 </file>
@@ -421,6 +406,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,12 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -738,7 +723,7 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +749,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -795,24 +780,24 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -833,28 +818,28 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -875,35 +860,35 @@
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="18"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="20"/>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -925,40 +910,32 @@
       <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="2"/>
@@ -3421,7 +3398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3443,205 +3420,206 @@
   <sheetData>
     <row r="1" spans="2:11" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="B7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="B17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="B23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="24"/>
+      <c r="B33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="15"/>
       <c r="D33" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="23"/>
+      <c r="B38" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="23"/>
+      <c r="B43" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="25"/>
     </row>
     <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:C28"/>
@@ -3649,7 +3627,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3659,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,10 +3654,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3688,6 +3665,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
@@ -3695,86 +3677,58 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>Items</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Melee</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Environment</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Stackable(bool)</t>
+  </si>
+  <si>
+    <t>Limited(bool)</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -437,6 +437,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,7 +726,7 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +793,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -830,12 +833,12 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
       <c r="K3" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
@@ -860,14 +863,10 @@
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="20"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="20" t="s">
         <v>6</v>
       </c>
@@ -876,19 +875,19 @@
         <v>7</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>14</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>15</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
       <c r="N4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -920,22 +919,18 @@
       <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="2"/>
@@ -3421,7 +3416,7 @@
     <row r="1" spans="2:11" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -3435,34 +3430,34 @@
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -3475,37 +3470,37 @@
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -3514,25 +3509,25 @@
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="15"/>
@@ -3541,16 +3536,16 @@
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3560,22 +3555,22 @@
     <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="25"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="3" t="s">
@@ -3584,37 +3579,37 @@
     </row>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="25"/>
     </row>
     <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="25"/>
     </row>
     <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3637,7 +3632,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3654,10 +3649,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3667,6 +3662,9 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3687,10 +3685,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,10 +3698,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +3711,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -3728,7 +3726,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unknown\Documents\GitHub\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AvDrine\Documents\GitHub\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ClassTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="89">
   <si>
     <t>Items</t>
   </si>
@@ -198,13 +198,109 @@
   </si>
   <si>
     <t>Limited(bool)</t>
+  </si>
+  <si>
+    <t>Тип поля</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Пакет - регистрация(клиент -&gt; сервер)</t>
+  </si>
+  <si>
+    <t>unsigned char</t>
+  </si>
+  <si>
+    <t>unsigned int</t>
+  </si>
+  <si>
+    <t>0x99887766</t>
+  </si>
+  <si>
+    <t>Название поля</t>
+  </si>
+  <si>
+    <t>PacketID</t>
+  </si>
+  <si>
+    <t>ProtocolID</t>
+  </si>
+  <si>
+    <t>Размер(байт)</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>см. таблицу ошибок</t>
+  </si>
+  <si>
+    <t>Таблица кодов ошибок</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Некорректный пакет</t>
+  </si>
+  <si>
+    <t>Указанный пароль в пакете не правильный</t>
+  </si>
+  <si>
+    <t>Пакет - ошибка(сервер -&gt; клиент)</t>
+  </si>
+  <si>
+    <t>Пакет - информация о загружаемой карте(сервер -&gt; клиент)</t>
+  </si>
+  <si>
+    <t>AmountOfPackets</t>
+  </si>
+  <si>
+    <t>Рассчитываемое зн.</t>
+  </si>
+  <si>
+    <t>NumberOfPacket</t>
+  </si>
+  <si>
+    <t>Пакет - элемент карты Ground(сервер -&gt; клиент)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Указываемое зн.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Пакет - информация о загружаемых игроках(сервер -&gt; клиент)</t>
+  </si>
+  <si>
+    <t>Пакет - элемент карты Character(сервер -&gt; клиент)</t>
+  </si>
+  <si>
+    <t>Nickname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -361,12 +457,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -421,6 +558,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,8 +579,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -726,10 +897,10 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H2" sqref="H2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -746,7 +917,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="15.75" thickBot="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -782,7 +953,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="26.25" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -820,7 +991,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="21" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -832,17 +1003,17 @@
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="22" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -862,30 +1033,30 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="20" t="s">
+    <row r="4" spans="1:32" ht="15.75" thickBot="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="12" t="s">
         <v>15</v>
       </c>
@@ -908,7 +1079,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="15.75" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -952,7 +1123,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -986,7 +1157,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1020,7 +1191,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1054,7 +1225,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1088,7 +1259,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1122,7 +1293,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1156,7 +1327,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1190,7 +1361,7 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1224,7 +1395,7 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1258,7 +1429,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1292,7 +1463,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1326,7 +1497,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1360,7 +1531,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1394,7 +1565,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1428,7 +1599,7 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1462,7 +1633,7 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1496,7 +1667,7 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1530,7 +1701,7 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1564,7 +1735,7 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1598,7 +1769,7 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1632,7 +1803,7 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1666,7 +1837,7 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1700,7 +1871,7 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1734,7 +1905,7 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1768,7 +1939,7 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1802,7 +1973,7 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1836,7 +2007,7 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1870,7 +2041,7 @@
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1904,7 +2075,7 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1938,7 +2109,7 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1972,7 +2143,7 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2006,7 +2177,7 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2040,7 +2211,7 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2074,7 +2245,7 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2108,7 +2279,7 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2142,7 +2313,7 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2176,7 +2347,7 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2210,7 +2381,7 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2244,7 +2415,7 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2278,7 +2449,7 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2312,7 +2483,7 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2346,7 +2517,7 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2380,7 +2551,7 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2414,7 +2585,7 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2448,7 +2619,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2482,7 +2653,7 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2516,7 +2687,7 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2550,7 +2721,7 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2584,7 +2755,7 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2618,7 +2789,7 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2652,7 +2823,7 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2686,7 +2857,7 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2720,7 +2891,7 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2754,7 +2925,7 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2788,7 +2959,7 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2822,7 +2993,7 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2856,7 +3027,7 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2890,7 +3061,7 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2924,7 +3095,7 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2958,7 +3129,7 @@
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2992,7 +3163,7 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3026,7 +3197,7 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3060,7 +3231,7 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3094,7 +3265,7 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3128,7 +3299,7 @@
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3162,7 +3333,7 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3196,7 +3367,7 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3230,7 +3401,7 @@
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3264,7 +3435,7 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3298,7 +3469,7 @@
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3332,7 +3503,7 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3393,11 +3564,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="0.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
@@ -3413,22 +3584,22 @@
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="2:11" ht="2.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:11" ht="21" thickBot="1">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
@@ -3454,21 +3625,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:11" ht="21" thickBot="1">
+      <c r="B7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1">
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -3497,17 +3668,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
+    <row r="11" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="12" spans="2:11" ht="21" thickBot="1">
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
@@ -3524,17 +3695,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
+    <row r="16" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="17" spans="2:6" ht="21" thickBot="1">
+      <c r="B17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="15.75" thickBot="1">
       <c r="B18" s="4" t="s">
         <v>47</v>
       </c>
@@ -3542,24 +3713,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+    <row r="22" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="23" spans="2:6" ht="21" thickBot="1">
+      <c r="B23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="28" spans="2:6" ht="21" thickBot="1">
+      <c r="B28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="25"/>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" thickBot="1">
       <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
@@ -3567,8 +3738,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="33" spans="2:4" ht="21" thickBot="1">
       <c r="B33" s="16" t="s">
         <v>17</v>
       </c>
@@ -3577,19 +3748,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1">
       <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="25" t="s">
+    <row r="37" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="38" spans="2:4" ht="21" thickBot="1">
+      <c r="B38" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="25"/>
-    </row>
-    <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="26"/>
+    </row>
+    <row r="39" spans="2:4" ht="15.75" thickBot="1">
       <c r="B39" s="4" t="s">
         <v>45</v>
       </c>
@@ -3597,14 +3768,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="25" t="s">
+    <row r="42" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="43" spans="2:4" ht="21.75" thickBot="1">
+      <c r="B43" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="25"/>
-    </row>
-    <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="26"/>
+    </row>
+    <row r="44" spans="2:4" ht="15.75" thickBot="1">
       <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
@@ -3631,23 +3802,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>43</v>
       </c>
@@ -3655,12 +3826,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -3668,22 +3839,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="14" t="s">
         <v>52</v>
       </c>
@@ -3691,12 +3862,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="14" t="s">
         <v>51</v>
       </c>
@@ -3704,27 +3875,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="14" t="s">
         <v>50</v>
       </c>
@@ -3736,14 +3907,858 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="28">
+        <v>200</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="29">
+        <v>4</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>8</v>
+      </c>
+      <c r="E4" s="29">
+        <v>8</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="28">
+        <v>201</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="29">
+        <v>10</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="29">
+        <v>4</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="29">
+        <v>4</v>
+      </c>
+      <c r="C18" s="31">
+        <v>1</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="37">
+        <v>4</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="31">
+        <v>21</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="29">
+        <v>4</v>
+      </c>
+      <c r="C25" s="31">
+        <v>1</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="37">
+        <v>4</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="37">
+        <v>4</v>
+      </c>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="31">
+        <v>22</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="36"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="36">
+        <v>4</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36">
+        <v>4</v>
+      </c>
+      <c r="E30" s="36"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="36"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="29">
+        <v>4</v>
+      </c>
+      <c r="C37" s="31">
+        <v>1</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="37">
+        <v>4</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="31">
+        <v>23</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="29">
+        <v>4</v>
+      </c>
+      <c r="C44" s="31">
+        <v>1</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="37">
+        <v>4</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="37">
+        <v>4</v>
+      </c>
+      <c r="H44" s="38"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="31">
+        <v>24</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="38"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="36"/>
+      <c r="F47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="27"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="36">
+        <v>4</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36">
+        <v>4</v>
+      </c>
+      <c r="E49" s="36"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="94">
   <si>
     <t>Items</t>
   </si>
@@ -294,6 +294,21 @@
   </si>
   <si>
     <t>Nickname</t>
+  </si>
+  <si>
+    <t>Первичная структура пакета</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>Пакет-пинг</t>
+  </si>
+  <si>
+    <t>Пакеты от сервера имеют логин server</t>
+  </si>
+  <si>
+    <t>ActiveAnimation</t>
   </si>
 </sst>
 </file>
@@ -421,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -498,12 +513,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -549,6 +658,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,14 +706,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -595,7 +730,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,10 +748,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -953,25 +1094,25 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="26.25" thickBot="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:32" ht="27.75" thickBot="1">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="17" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -992,28 +1133,28 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21" thickBot="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="25" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="23" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1034,29 +1175,29 @@
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
       <c r="N4" s="12" t="s">
         <v>15</v>
       </c>
@@ -3565,7 +3706,7 @@
   <dimension ref="B1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3585,17 +3726,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="2.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:11" ht="21" thickBot="1">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:11" ht="21.75" thickBot="1">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
@@ -3626,18 +3767,18 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="2:11" ht="21" thickBot="1">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="2:11" ht="21.75" thickBot="1">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1">
       <c r="B8" s="4" t="s">
@@ -3669,14 +3810,14 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="12" spans="2:11" ht="21" thickBot="1">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="2:11" ht="21.75" thickBot="1">
+      <c r="B12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
@@ -3696,11 +3837,11 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="17" spans="2:6" ht="21" thickBot="1">
-      <c r="B17" s="26" t="s">
+    <row r="17" spans="2:6" ht="21.75" thickBot="1">
+      <c r="B17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -3714,21 +3855,21 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="23" spans="2:6" ht="21" thickBot="1">
-      <c r="B23" s="26" t="s">
+    <row r="23" spans="2:6" ht="21.75" thickBot="1">
+      <c r="B23" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="28" spans="2:6" ht="21" thickBot="1">
-      <c r="B28" s="26" t="s">
+    <row r="28" spans="2:6" ht="21.75" thickBot="1">
+      <c r="B28" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="36"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1">
       <c r="B29" s="4" t="s">
@@ -3739,7 +3880,7 @@
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="33" spans="2:4" ht="21" thickBot="1">
+    <row r="33" spans="2:4" ht="21.75" thickBot="1">
       <c r="B33" s="16" t="s">
         <v>17</v>
       </c>
@@ -3754,11 +3895,11 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="38" spans="2:4" ht="21" thickBot="1">
-      <c r="B38" s="26" t="s">
+    <row r="38" spans="2:4" ht="21.75" thickBot="1">
+      <c r="B38" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" spans="2:4" ht="15.75" thickBot="1">
       <c r="B39" s="4" t="s">
@@ -3770,10 +3911,10 @@
     </row>
     <row r="42" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="43" spans="2:4" ht="21.75" thickBot="1">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="36"/>
     </row>
     <row r="44" spans="2:4" ht="15.75" thickBot="1">
       <c r="B44" s="4" t="s">
@@ -3907,10 +4048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3921,842 +4062,1071 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="17">
+        <v>200</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="18">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18">
+        <v>8</v>
+      </c>
+      <c r="D4" s="50">
+        <v>4</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="17">
+        <v>201</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="50"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="28" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="29" t="s">
+      <c r="C9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="34" t="s">
+      <c r="D9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
+        <v>8</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="28" t="s">
+      <c r="B12" s="18">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B17" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="43">
+        <v>1</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="43">
+        <v>1</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45">
+        <v>4</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="43">
+        <v>21</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="C31" s="44"/>
+      <c r="D31" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="44"/>
+      <c r="H31" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="43">
+        <v>1</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45">
+        <v>4</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="45">
+        <v>4</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="43">
+        <v>22</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="50"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="51">
+        <v>4</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50">
+        <v>4</v>
+      </c>
+      <c r="E37" s="50"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="50"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="46"/>
+      <c r="F43" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="43">
+        <v>1</v>
+      </c>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45">
+        <v>4</v>
+      </c>
+      <c r="E44" s="46"/>
+      <c r="F44" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="43">
+        <v>23</v>
+      </c>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="46"/>
+      <c r="F45" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="46"/>
+      <c r="F52" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="46"/>
+      <c r="H52" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="46"/>
+      <c r="F53" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="44"/>
+      <c r="H53" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="43">
+        <v>1</v>
+      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45">
+        <v>4</v>
+      </c>
+      <c r="E54" s="46"/>
+      <c r="F54" s="45">
+        <v>4</v>
+      </c>
+      <c r="G54" s="46"/>
+      <c r="H54" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="43">
+        <v>24</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="46"/>
+      <c r="F55" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="46"/>
+      <c r="H55" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="46"/>
+      <c r="D57" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="46"/>
+      <c r="F57" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" s="40"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="44"/>
+      <c r="D58" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="44"/>
+      <c r="F58" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="G58" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="28">
-        <v>200</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="28" t="s">
+      <c r="H58" s="40"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B59" s="45">
         <v>4</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C59" s="46"/>
+      <c r="D59" s="45">
+        <v>4</v>
+      </c>
+      <c r="E59" s="46"/>
+      <c r="F59" s="18">
+        <v>8</v>
+      </c>
+      <c r="G59" s="40">
+        <v>8</v>
+      </c>
+      <c r="H59" s="40"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="46"/>
+      <c r="D60" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="46"/>
+      <c r="F60" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="50"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="44"/>
+      <c r="D65" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="43">
         <v>1</v>
       </c>
-      <c r="D4" s="29">
-        <v>8</v>
-      </c>
-      <c r="E4" s="29">
-        <v>8</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="28">
-        <v>201</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="28" t="s">
+      <c r="C66" s="44"/>
+      <c r="D66" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="29">
-        <v>10</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="29">
-        <v>4</v>
-      </c>
-      <c r="C11" s="31">
-        <v>1</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="29">
-        <v>4</v>
-      </c>
-      <c r="C18" s="31">
-        <v>1</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="37">
-        <v>4</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="31">
-        <v>21</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="29">
-        <v>4</v>
-      </c>
-      <c r="C25" s="31">
-        <v>1</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="37">
-        <v>4</v>
-      </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="37">
-        <v>4</v>
-      </c>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="31">
-        <v>22</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="36">
-        <v>4</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36">
-        <v>4</v>
-      </c>
-      <c r="E30" s="36"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="36"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="29">
-        <v>4</v>
-      </c>
-      <c r="C37" s="31">
-        <v>1</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="37">
-        <v>4</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="31">
-        <v>23</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="38"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="32"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="29">
-        <v>4</v>
-      </c>
-      <c r="C44" s="31">
-        <v>1</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="37">
-        <v>4</v>
-      </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="37">
-        <v>4</v>
-      </c>
-      <c r="H44" s="38"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="31">
-        <v>24</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="38"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="36"/>
-      <c r="F47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="27"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="36">
-        <v>4</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36">
-        <v>4</v>
-      </c>
-      <c r="E49" s="36"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="36"/>
+      <c r="B67" s="43">
+        <v>254</v>
+      </c>
+      <c r="C67" s="44"/>
+      <c r="D67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
+  <mergeCells count="85">
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="A41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="I1:Q1"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="98">
   <si>
     <t>Items</t>
   </si>
@@ -83,12 +83,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>Wtrig</t>
-  </si>
-  <si>
     <t>PosX(int)</t>
   </si>
   <si>
@@ -161,12 +155,6 @@
     <t>ID(int)</t>
   </si>
   <si>
-    <t>Status(bool)</t>
-  </si>
-  <si>
-    <t>ConnectionID(int)</t>
-  </si>
-  <si>
     <t>NonLive(logical)</t>
   </si>
   <si>
@@ -309,6 +297,30 @@
   </si>
   <si>
     <t>ActiveAnimation</t>
+  </si>
+  <si>
+    <t>Пакет - информация о загружаемых normal(сервер -&gt; клиент)</t>
+  </si>
+  <si>
+    <t>Пакет - элемент карты Normal(сервер -&gt; клиент)</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>Speed(int)</t>
+  </si>
+  <si>
+    <t>Damage(int)</t>
+  </si>
+  <si>
+    <t>FollowPointX(int)</t>
+  </si>
+  <si>
+    <t>FollowPointY(int)</t>
+  </si>
+  <si>
+    <t>Пакет об удалении characters</t>
   </si>
 </sst>
 </file>
@@ -436,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -607,12 +619,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -676,6 +725,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,22 +770,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -736,22 +803,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1095,24 +1174,24 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="27.75" thickBot="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="27" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1133,28 +1212,28 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21" thickBot="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="35" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="33" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1175,29 +1254,29 @@
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="34" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="12" t="s">
         <v>15</v>
       </c>
@@ -1238,12 +1317,10 @@
       <c r="K5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="L5" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="31"/>
       <c r="N5" s="8"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -3679,7 +3756,8 @@
       <c r="AF76" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:D3"/>
@@ -3705,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3727,160 +3805,160 @@
   <sheetData>
     <row r="1" spans="2:11" ht="2.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:11" ht="21.75" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:11" ht="21.75" thickBot="1">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1">
       <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="12" spans="2:11" ht="21.75" thickBot="1">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="17" spans="2:6" ht="21.75" thickBot="1">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1">
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="23" spans="2:6" ht="21.75" thickBot="1">
-      <c r="B23" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="28" spans="2:6" ht="21.75" thickBot="1">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="41"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1">
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="33" spans="2:4" ht="21.75" thickBot="1">
+    <row r="33" spans="2:7" ht="21.75" thickBot="1">
       <c r="B33" s="16" t="s">
         <v>17</v>
       </c>
@@ -3889,49 +3967,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1">
+    <row r="34" spans="2:7" ht="15.75" thickBot="1">
       <c r="B34" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="38" spans="2:4" ht="21.75" thickBot="1">
-      <c r="B38" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="36"/>
-    </row>
-    <row r="39" spans="2:4" ht="15.75" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="38" spans="2:7" ht="21.75" thickBot="1">
+      <c r="B38" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" thickBot="1">
       <c r="B39" s="4" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="43" spans="2:4" ht="21.75" thickBot="1">
-      <c r="B43" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="36"/>
-    </row>
-    <row r="44" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="43"/>
+      <c r="F39" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="43"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B38:G38"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
@@ -3961,10 +4052,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3974,10 +4065,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3997,10 +4088,10 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4010,10 +4101,10 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4023,7 +4114,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -4038,7 +4129,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4048,10 +4139,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:G38"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4062,93 +4153,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="A1" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
+      <c r="I1" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="48"/>
       <c r="H2" s="1"/>
       <c r="I2" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
+        <v>69</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+        <v>63</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="17">
         <v>200</v>
       </c>
-      <c r="J3" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="J3" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="18">
         <v>4</v>
@@ -4156,109 +4247,109 @@
       <c r="C4" s="18">
         <v>8</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="48">
         <v>4</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="17">
         <v>201</v>
       </c>
-      <c r="J4" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="J4" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>62</v>
-      </c>
       <c r="C5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="50"/>
+        <v>66</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="48"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="44"/>
+      <c r="A8" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11" s="18">
         <v>1</v>
@@ -4267,834 +4358,1192 @@
         <v>8</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" s="18">
         <v>10</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="A15" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="44"/>
+        <v>59</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="50"/>
       <c r="D16" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="44"/>
+        <v>53</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="50"/>
       <c r="D17" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="43">
+        <v>62</v>
+      </c>
+      <c r="B18" s="49">
         <v>1</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="44"/>
+        <v>54</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="50"/>
       <c r="D19" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="46"/>
+        <v>59</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="52"/>
       <c r="F23" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="43">
+        <v>62</v>
+      </c>
+      <c r="B25" s="49">
         <v>1</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45">
+      <c r="C25" s="50"/>
+      <c r="D25" s="51">
         <v>4</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="52"/>
       <c r="F25" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="43">
+        <v>54</v>
+      </c>
+      <c r="B26" s="49">
         <v>21</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="52"/>
       <c r="F26" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="A29" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="46"/>
+        <v>59</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="52"/>
       <c r="H30" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="44"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="50"/>
       <c r="H31" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="43">
+        <v>62</v>
+      </c>
+      <c r="B32" s="49">
         <v>1</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="45">
+      <c r="C32" s="50"/>
+      <c r="D32" s="51">
         <v>4</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="45">
+      <c r="E32" s="52"/>
+      <c r="F32" s="51">
         <v>4</v>
       </c>
-      <c r="G32" s="46"/>
+      <c r="G32" s="52"/>
       <c r="H32" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="43">
+        <v>54</v>
+      </c>
+      <c r="B33" s="49">
         <v>22</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="46"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="52"/>
       <c r="H33" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="50"/>
+        <v>59</v>
+      </c>
+      <c r="B35" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="48"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="40"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="47"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="51">
+        <v>62</v>
+      </c>
+      <c r="B37" s="58">
         <v>4</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48">
         <v>4</v>
       </c>
-      <c r="E37" s="50"/>
+      <c r="E37" s="48"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="50"/>
+        <v>54</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="48"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="A41" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="46"/>
+        <v>59</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="52"/>
       <c r="F42" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="46"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="43">
+        <v>62</v>
+      </c>
+      <c r="B44" s="49">
         <v>1</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45">
+      <c r="C44" s="50"/>
+      <c r="D44" s="51">
         <v>4</v>
       </c>
-      <c r="E44" s="46"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="43">
+        <v>54</v>
+      </c>
+      <c r="B45" s="49">
         <v>23</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="46"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="52"/>
       <c r="F45" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
+      <c r="A51" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="46"/>
-      <c r="F52" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="46"/>
+        <v>59</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="52"/>
+      <c r="F52" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="52"/>
       <c r="H52" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" s="44"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="50"/>
       <c r="H53" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="43">
+        <v>62</v>
+      </c>
+      <c r="B54" s="49">
         <v>1</v>
       </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45">
+      <c r="C54" s="50"/>
+      <c r="D54" s="51">
         <v>4</v>
       </c>
-      <c r="E54" s="46"/>
-      <c r="F54" s="45">
+      <c r="E54" s="52"/>
+      <c r="F54" s="51">
         <v>4</v>
       </c>
-      <c r="G54" s="46"/>
+      <c r="G54" s="52"/>
       <c r="H54" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="43">
+        <v>54</v>
+      </c>
+      <c r="B55" s="49">
         <v>24</v>
       </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="46"/>
-      <c r="F55" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="G55" s="46"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="52"/>
       <c r="H55" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="46"/>
+        <v>59</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="52"/>
       <c r="F57" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H57" s="40"/>
+        <v>84</v>
+      </c>
+      <c r="G57" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="44"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="50"/>
       <c r="F58" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="40"/>
+        <v>63</v>
+      </c>
+      <c r="G58" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="47"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="45">
+        <v>62</v>
+      </c>
+      <c r="B59" s="51">
         <v>4</v>
       </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="45">
+      <c r="C59" s="52"/>
+      <c r="D59" s="51">
         <v>4</v>
       </c>
-      <c r="E59" s="46"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="18">
         <v>8</v>
       </c>
-      <c r="G59" s="40">
+      <c r="G59" s="47">
         <v>8</v>
       </c>
-      <c r="H59" s="40"/>
+      <c r="H59" s="47"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="46"/>
-      <c r="D60" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="46"/>
+        <v>54</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="52"/>
+      <c r="D60" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="52"/>
       <c r="F60" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="50"/>
+        <v>66</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="48"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
+      <c r="A63" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="42"/>
+        <v>59</v>
+      </c>
+      <c r="B64" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="61"/>
       <c r="D64" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="44"/>
+        <v>53</v>
+      </c>
+      <c r="B65" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="50"/>
       <c r="D65" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="43">
+        <v>62</v>
+      </c>
+      <c r="B66" s="49">
         <v>1</v>
       </c>
-      <c r="C66" s="44"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="43">
+        <v>54</v>
+      </c>
+      <c r="B67" s="49">
         <v>254</v>
       </c>
-      <c r="C67" s="44"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="50"/>
+      <c r="D70" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="52"/>
+      <c r="F70" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="50"/>
+      <c r="D71" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="52"/>
+      <c r="F71" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="49">
+        <v>1</v>
+      </c>
+      <c r="C72" s="50"/>
+      <c r="D72" s="51">
+        <v>4</v>
+      </c>
+      <c r="E72" s="52"/>
+      <c r="F72" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="49">
+        <v>25</v>
+      </c>
+      <c r="C73" s="50"/>
+      <c r="D73" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" s="52"/>
+      <c r="F73" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="50"/>
+      <c r="D77" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="52"/>
+      <c r="F77" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="52"/>
+      <c r="H77" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="50"/>
+      <c r="D78" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="52"/>
+      <c r="F78" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="50"/>
+      <c r="H78" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="49">
+        <v>1</v>
+      </c>
+      <c r="C79" s="50"/>
+      <c r="D79" s="51">
+        <v>4</v>
+      </c>
+      <c r="E79" s="52"/>
+      <c r="F79" s="51">
+        <v>4</v>
+      </c>
+      <c r="G79" s="52"/>
+      <c r="H79" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="49">
+        <v>26</v>
+      </c>
+      <c r="C80" s="50"/>
+      <c r="D80" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E80" s="52"/>
+      <c r="F80" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G80" s="52"/>
+      <c r="H80" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" s="48"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="47"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="58">
+        <v>4</v>
+      </c>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48">
+        <v>4</v>
+      </c>
+      <c r="E84" s="48"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="48"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="61"/>
+      <c r="D89" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H89" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="50"/>
+      <c r="D90" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H90" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="49">
+        <v>1</v>
+      </c>
+      <c r="C91" s="50"/>
+      <c r="D91" s="29">
+        <v>8</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H91" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="49">
+        <v>27</v>
+      </c>
+      <c r="C92" s="50"/>
+      <c r="D92" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H92" s="28" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
+  <mergeCells count="120">
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A51:H51"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
@@ -5111,22 +5560,51 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="F3:H4"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:H57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
